--- a/ALGOS/ANN.xlsx
+++ b/ALGOS/ANN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\ALGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF23D01-BE3B-4288-850B-7F488E58AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24878F5-7C88-45B3-A12E-3AC4F38C6A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PytorchImp" sheetId="1" r:id="rId1"/>
+    <sheet name="TensorFlow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <r>
       <t>import</t>
@@ -5261,6 +5262,3083 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> %'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># First Neural Net</t>
+  </si>
+  <si>
+    <t># Train, evaluate, and predict with the model</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>os</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'TF_CPP_MIN_LOG_LEVEL'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mnist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mnist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mnist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.shape, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.shape)</t>
+    </r>
+  </si>
+  <si>
+    <t># normalize: 0,255 -&gt; 0,1</t>
+  </si>
+  <si>
+    <r>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+  </si>
+  <si>
+    <t># model</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Flatten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>activation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'relu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>])</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <t># another way to build the Sequential model:</t>
+  </si>
+  <si>
+    <t>#model = keras.models.Sequential()</t>
+  </si>
+  <si>
+    <t>#model.add(keras.layers.Flatten(input_shape=(28,28))</t>
+  </si>
+  <si>
+    <t>#model.add(keras.layers.Dense(128, activation='relu'))</t>
+  </si>
+  <si>
+    <t>#model.add(keras.layers.Dense(10))</t>
+  </si>
+  <si>
+    <t># loss and optimizer</t>
+  </si>
+  <si>
+    <r>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SparseCategoricalCrossentropy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_logits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"accuracy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># training</t>
+  </si>
+  <si>
+    <r>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shuffle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># evaulate</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># predictions</t>
+  </si>
+  <si>
+    <t># 1. option: build new model with Softmax layer</t>
+  </si>
+  <si>
+    <r>
+      <t>probability_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Softmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>probability_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pred0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pred0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># use np.argmax to get label with highest probability</t>
+  </si>
+  <si>
+    <r>
+      <t>label0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>argmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pred0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># 2. option: original model + nn.softmax, call model(x)</t>
+  </si>
+  <si>
+    <r>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>softmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># 3. option: original model + nn.softmax, call model.predict(x)</t>
+  </si>
+  <si>
+    <r>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># call argmax for multiple labels</t>
+  </si>
+  <si>
+    <r>
+      <t>pred05s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pred05s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.shape)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>label05s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>argmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pred05s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label05s</t>
     </r>
     <r>
       <rPr>
@@ -5346,7 +8424,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5362,6 +8440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5415,7 +8499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5445,6 +8529,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5729,7 +8834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -6240,4 +9345,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8526A-1758-4E04-A57A-3FE976EF9D55}">
+  <dimension ref="B1:B86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="123.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>